--- a/src/outputs/pot/pot_rozszerzony.xlsx
+++ b/src/outputs/pot/pot_rozszerzony.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Desktop\ZRJ5\v_1_0_3\src\outputs\pot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaspi\Documents\python\nowyObieg\v_1_0_4\src\outputs\pot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6618AA5F-B218-49B6-A8EC-28A2983F40FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDBFD364-F0C7-4631-83ED-2F10F15EEBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{5FDFD3D7-71FF-4C20-90CD-D60686494B41}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{D45E3278-C023-4BB8-AB34-E9642AEC001B}"/>
   </bookViews>
   <sheets>
     <sheet name="obieg_1" sheetId="16" r:id="rId1"/>
@@ -1118,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE4E5F8-A118-48BE-9554-9512A3ED7F4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2276E70B-62F8-4AB6-9D60-43A54A276B7A}">
   <dimension ref="A1:AW29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2267,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0332FBEB-0C15-4960-9BE9-1CF3947F95AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B365EFEF-1BA7-4BD6-87DF-4A73F3043CA5}">
   <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2850,7 +2850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C43BF7-8F3D-4DFD-9E4F-59551BC04874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF4F1B0-9380-4D46-B413-0718310F2EDC}">
   <dimension ref="A1:AW29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3924,7 +3924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAC191D-E0A7-421A-962C-90289F74399B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EF4137-0729-49B4-9AB2-C68E1F77A08E}">
   <dimension ref="A1:AW57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5980,7 +5980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1E500B-FFAF-4B99-BF59-C4750A809C8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4A5342-1B23-4DDF-9551-D46D66BFE208}">
   <dimension ref="A1:AW85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9218,7 +9218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D407B-1A8D-498E-8078-35751BC1788D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F384D77-FFBC-4327-958F-2C98D6D9C5C2}">
   <dimension ref="A1:AW43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10983,7 +10983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CB42B0-2861-4DF6-870C-52D7FB717F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D366FD-FB59-4737-A6FC-407938B90EAF}">
   <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11515,7 +11515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292DF4B4-D76D-4624-A505-408BDBD37144}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7009186-8893-4210-9DCC-F1005247C01E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11527,7 +11527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290AFB7D-94A7-42CC-86DA-D7F01414495A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B0FDE4-3046-4EF5-89E1-313AF8A9A12F}">
   <dimension ref="A1:AW29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12701,7 +12701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2063C428-502D-4F4E-AE77-3A94B1D4463A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC2BC4E-F793-4F2E-BF78-31749555B2BA}">
   <dimension ref="A1:AW29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13900,7 +13900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBB2F94-86DB-4219-92D0-0A0C3A0458F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3F8B51-C39C-40AC-AFE7-990CCF1946D2}">
   <dimension ref="A1:AW43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15615,7 +15615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AC4A4D-2431-4892-8382-E1B755E19F5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6B7E0E-3500-4584-A435-684CF22B4B46}">
   <dimension ref="A1:AW29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16789,7 +16789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA74B4D-E080-420B-89AF-7860071E4B4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BBC6BD-D5AF-426F-8C7E-85D9C27EF253}">
   <dimension ref="A1:AW99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -20693,7 +20693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BD477D-6907-4908-9D51-D44B0E700C95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FC793F-4C84-4777-88A5-AC495242F3BF}">
   <dimension ref="A1:AW29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21892,7 +21892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AE21F3-C5CC-4EAA-826A-A680EBCE1FD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC620F83-72C8-47F0-8C38-CAD3E91B3616}">
   <dimension ref="A1:AW99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25721,7 +25721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2B6FFC-EF2C-4D8E-B686-281A749CA332}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166E74F0-3433-4A16-BEA6-3C965A30163E}">
   <dimension ref="A1:AW141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
